--- a/Тесты.xlsx
+++ b/Тесты.xlsx
@@ -659,97 +659,97 @@
                   <c:v>0.496199999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.515484079684296</c:v>
+                  <c:v>0.512856155291711</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.507332211116855</c:v>
+                  <c:v>0.501067764605739</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.501226930064402</c:v>
+                  <c:v>0.477821586475967</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.552037975450949</c:v>
+                  <c:v>0.501204076400856</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.590357785083452</c:v>
+                  <c:v>0.529233080812753</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.569957337381409</c:v>
+                  <c:v>0.486391494231303</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.631141388552744</c:v>
+                  <c:v>0.45623637557561</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.762261110119098</c:v>
+                  <c:v>0.539</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.769284374448456</c:v>
+                  <c:v>0.512016466135475</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.930759200486898</c:v>
+                  <c:v>0.511513418985973</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0162723407046</c:v>
+                  <c:v>0.564382762673449</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1448441438292</c:v>
+                  <c:v>0.380995923599143</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.64025406347255</c:v>
+                  <c:v>0.0918817649974773</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.86841927043041</c:v>
+                  <c:v>0.185427322176982</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.50611766557301</c:v>
+                  <c:v>4.85477180803755</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>9.2942</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.50611766557301</c:v>
+                  <c:v>4.85477180803755</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.86841927043041</c:v>
+                  <c:v>0.185427322176983</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.64025406347255</c:v>
+                  <c:v>0.0918817649974773</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1448441438292</c:v>
+                  <c:v>0.380995923599143</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0162723407046</c:v>
+                  <c:v>0.564382762673449</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.930759200486899</c:v>
+                  <c:v>0.511513418985974</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.769284374448456</c:v>
+                  <c:v>0.512016466135475</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.762261110119098</c:v>
+                  <c:v>0.539</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.631141388552744</c:v>
+                  <c:v>0.45623637557561</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.569957337381409</c:v>
+                  <c:v>0.486391494231303</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.590357785083452</c:v>
+                  <c:v>0.529233080812753</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.552037975450949</c:v>
+                  <c:v>0.501204076400856</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.501226930064402</c:v>
+                  <c:v>0.477821586475966</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.507332211116855</c:v>
+                  <c:v>0.501067764605739</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.515484079684296</c:v>
+                  <c:v>0.512856155291711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,6 +936,597 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bessel</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$1:$E$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99750156206604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.990024972239576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.977626246538296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.960398226659563</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.938469807240812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91200486349721</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.881200888607405</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84628735275048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.807523798122544</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.765197686557966</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.719622018527511</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.671132744264362</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.620085989561509</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.566855120374288</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.511827671735918</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.45540216763938</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.397984859446109</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.339986411042558</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.281818559374385</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.223890779141235</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.16660698033199</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.110362266922173</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.055539784445602</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.00250768329724382</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.048383776468198</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.0968049543970381</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.142449370046011</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.185036033364387</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.224311545791968</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.260051954901933</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.292064347650697</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.320188169657123</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.344296260398884</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.364295596762</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.380127739987263</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.391768983700798</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.399230203371191</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.402556410178564</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.40182601488764</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.397149809863847</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.388669679835853</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.376557054367567</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.361011117236534</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.342256790003886</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.320542508985121</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.296137816574141</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.269330789419752</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.240425327291184</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.209738327585325</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.177596771314337</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.1443347470605</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.110290439790986</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.075803111585583</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.0412101012449921</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.00684386941781811</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0269708846851138</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0599200097240368</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0917025675748163</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.122033354592822</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.150645257250998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.177291422242746</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.201747222948902</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.223812006132187</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.243310604823405</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.260094605581604</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.274043360624144</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.285064737710577</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.293095603104277</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.298102035404817</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.300079270519553</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.299051380501551</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.295070691400954</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.288216947635008</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.278596232657464</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.266339657880357</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.251601833849951</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.234559139586413</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.215407807746187</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.194361844841157</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.171650807137368</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.147517454044047</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.1222153017836</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0960061008941477</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.0691572616556066</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.0419392518407111</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.014622991275232</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.0125227324552765</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.0392338031853833</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.0652532468651139</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.0903336112045707</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.114239232716925</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.136748370817049</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.157655190023787</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.176771572874613</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.193928747875238</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.208978718654124</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.221795482462951</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.232276028228718</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.240341106508333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-239175280"/>
+        <c:axId val="-239167952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-239175280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-239167952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-239167952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-239175280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1016,6 +1607,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1533,6 +2164,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2105,6 +3252,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2376,15 +3553,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="D1" sqref="D1:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2397,8 +3574,11 @@
       <c r="D1" s="1">
         <v>0.49619999999999898</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2409,10 +3589,13 @@
         <v>-15</v>
       </c>
       <c r="D2" s="1">
-        <v>0.51548407968429599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.51285615529171102</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.99750156206604002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2423,10 +3606,13 @@
         <v>-14</v>
       </c>
       <c r="D3" s="1">
-        <v>0.507332211116855</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.50106776460573899</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.99002497223957597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.995</v>
       </c>
@@ -2437,10 +3623,13 @@
         <v>-13</v>
       </c>
       <c r="D4" s="1">
-        <v>0.501226930064402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.47782158647596701</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.977626246538296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.98199999999999998</v>
       </c>
@@ -2451,10 +3640,13 @@
         <v>-12</v>
       </c>
       <c r="D5" s="1">
-        <v>0.55203797545094901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.50120407640085596</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.96039822665956298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.93400000000000005</v>
       </c>
@@ -2465,10 +3657,13 @@
         <v>-11</v>
       </c>
       <c r="D6" s="1">
-        <v>0.59035778508345205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.529233080812753</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.93846980724081197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.84299999999999997</v>
       </c>
@@ -2479,10 +3674,13 @@
         <v>-10</v>
       </c>
       <c r="D7" s="1">
-        <v>0.56995733738140897</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.48639149423130301</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.91200486349720999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.70399999999999996</v>
       </c>
@@ -2493,10 +3691,13 @@
         <v>-9</v>
       </c>
       <c r="D8" s="1">
-        <v>0.63114138855274404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.45623637557560998</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.88120088860740498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.57899999999999996</v>
       </c>
@@ -2507,10 +3708,13 @@
         <v>-8</v>
       </c>
       <c r="D9" s="1">
-        <v>0.76226111011909803</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.84628735275047995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.44500000000000001</v>
       </c>
@@ -2521,10 +3725,13 @@
         <v>-7</v>
       </c>
       <c r="D10" s="1">
-        <v>0.76928437444845599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.51201646613547502</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.80752379812254405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.30109999999999998</v>
       </c>
@@ -2535,10 +3742,13 @@
         <v>-6</v>
       </c>
       <c r="D11" s="1">
-        <v>0.93075920048689798</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.51151341898597302</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.76519768655796605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.223</v>
       </c>
@@ -2549,10 +3759,13 @@
         <v>-5</v>
       </c>
       <c r="D12" s="1">
-        <v>1.0162723407045999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.564382762673449</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.71962201852751095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.156</v>
       </c>
@@ -2563,10 +3776,13 @@
         <v>-4</v>
       </c>
       <c r="D13" s="1">
-        <v>1.1448441438292001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.38099592359914303</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.67113274426436198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.09</v>
       </c>
@@ -2577,10 +3793,13 @@
         <v>-3</v>
       </c>
       <c r="D14" s="1">
-        <v>1.64025406347255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9.18817649974773E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.62008598956150895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3.4000000000000002E-2</v>
       </c>
@@ -2591,10 +3810,13 @@
         <v>-2</v>
       </c>
       <c r="D15" s="1">
-        <v>3.8684192704304099</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.18542732217698199</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.56685512037428798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -2605,10 +3827,13 @@
         <v>-1</v>
       </c>
       <c r="D16" s="1">
-        <v>7.5061176655730097</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4.8547718080375502</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.51182767173591803</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1E-4</v>
       </c>
@@ -2621,8 +3846,11 @@
       <c r="D17" s="1">
         <v>9.2942</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="1">
+        <v>0.45540216763938002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2633,10 +3861,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>7.5061176655730097</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4.8547718080375502</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.39798485944610901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>0</v>
       </c>
@@ -2644,10 +3875,13 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>3.8684192704304099</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.18542732217698299</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.339986411042558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>0</v>
       </c>
@@ -2655,10 +3889,13 @@
         <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>1.64025406347255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9.18817649974773E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.28181855937438499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>0</v>
       </c>
@@ -2666,10 +3903,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>1.1448441438292001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.38099592359914303</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.22389077914123501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>0</v>
       </c>
@@ -2677,10 +3917,13 @@
         <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>1.0162723407045999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.564382762673449</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.16660698033199001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>0</v>
       </c>
@@ -2688,10 +3931,13 @@
         <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>0.93075920048689897</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.51151341898597402</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.11036226692217301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>0</v>
       </c>
@@ -2699,10 +3945,13 @@
         <v>7</v>
       </c>
       <c r="D24" s="1">
-        <v>0.76928437444845599</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.51201646613547502</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5.5539784445602002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>0</v>
       </c>
@@ -2710,10 +3959,13 @@
         <v>8</v>
       </c>
       <c r="D25" s="1">
-        <v>0.76226111011909803</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.50768329724382E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>0</v>
       </c>
@@ -2721,10 +3973,13 @@
         <v>9</v>
       </c>
       <c r="D26" s="1">
-        <v>0.63114138855274404</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.45623637557560998</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-4.8383776468197998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>0</v>
       </c>
@@ -2732,10 +3987,13 @@
         <v>10</v>
       </c>
       <c r="D27" s="1">
-        <v>0.56995733738140897</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.48639149423130301</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-9.6804954397038095E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>0</v>
       </c>
@@ -2743,10 +4001,13 @@
         <v>11</v>
       </c>
       <c r="D28" s="1">
-        <v>0.59035778508345205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.529233080812753</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-0.14244937004601099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>0</v>
       </c>
@@ -2754,10 +4015,13 @@
         <v>12</v>
       </c>
       <c r="D29" s="1">
-        <v>0.55203797545094901</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.50120407640085596</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-0.18503603336438701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>0</v>
       </c>
@@ -2765,10 +4029,13 @@
         <v>13</v>
       </c>
       <c r="D30" s="1">
-        <v>0.501226930064402</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.47782158647596601</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-0.22431154579196799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>0</v>
       </c>
@@ -2776,10 +4043,13 @@
         <v>14</v>
       </c>
       <c r="D31" s="1">
-        <v>0.507332211116855</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.50106776460573899</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-0.260051954901933</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>0</v>
       </c>
@@ -2787,7 +4057,350 @@
         <v>15</v>
       </c>
       <c r="D32" s="1">
-        <v>0.51548407968429599</v>
+        <v>0.51285615529171102</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-0.292064347650697</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="1">
+        <v>-0.32018816965712299</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="1">
+        <v>-0.344296260398884</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="1">
+        <v>-0.36429559676200002</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="1">
+        <v>-0.38012773998726301</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="1">
+        <v>-0.39176898370079799</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E38" s="1">
+        <v>-0.39923020337119097</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E39" s="1">
+        <v>-0.40255641017856397</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="1">
+        <v>-0.40182601488764003</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E41" s="1">
+        <v>-0.39714980986384701</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E42" s="1">
+        <v>-0.38866967983585299</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E43" s="1">
+        <v>-0.37655705436756698</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E44" s="1">
+        <v>-0.36101111723653401</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E45" s="1">
+        <v>-0.34225679000388598</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E46" s="1">
+        <v>-0.32054250898512099</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E47" s="1">
+        <v>-0.29613781657414101</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E48" s="1">
+        <v>-0.26933078941975203</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E49" s="1">
+        <v>-0.24042532729118399</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E50" s="1">
+        <v>-0.20973832758532501</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E51" s="1">
+        <v>-0.17759677131433699</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E52" s="1">
+        <v>-0.14433474706050001</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E53" s="1">
+        <v>-0.110290439790986</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E54" s="1">
+        <v>-7.5803111585583005E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E55" s="1">
+        <v>-4.1210101244992102E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E56" s="1">
+        <v>-6.8438694178181098E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E57" s="1">
+        <v>2.69708846851138E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E58" s="1">
+        <v>5.9920009724036799E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E59" s="1">
+        <v>9.1702567574816304E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E60" s="1">
+        <v>0.122033354592822</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E61" s="1">
+        <v>0.150645257250998</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E62" s="1">
+        <v>0.17729142224274599</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E63" s="1">
+        <v>0.20174722294890199</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E64" s="1">
+        <v>0.22381200613218699</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E65" s="1">
+        <v>0.243310604823405</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E66" s="1">
+        <v>0.26009460558160402</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E67" s="1">
+        <v>0.27404336062414397</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E68" s="1">
+        <v>0.285064737710577</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E69" s="1">
+        <v>0.29309560310427701</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E70" s="1">
+        <v>0.298102035404817</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E71" s="1">
+        <v>0.30007927051955302</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E72" s="1">
+        <v>0.299051380501551</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E73" s="1">
+        <v>0.29507069140095399</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E74" s="1">
+        <v>0.28821694763500799</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E75" s="1">
+        <v>0.27859623265746403</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E76" s="1">
+        <v>0.26633965788035702</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E77" s="1">
+        <v>0.251601833849951</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E78" s="1">
+        <v>0.234559139586413</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E79" s="1">
+        <v>0.21540780774618701</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E80" s="1">
+        <v>0.19436184484115701</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E81" s="1">
+        <v>0.17165080713736799</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E82" s="1">
+        <v>0.14751745404404701</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E83" s="1">
+        <v>0.1222153017836</v>
+      </c>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E84" s="1">
+        <v>9.6006100894147697E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E85" s="1">
+        <v>6.9157261655606594E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E86" s="1">
+        <v>4.1939251840711102E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E87" s="1">
+        <v>1.4622991275232E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E88" s="1">
+        <v>-1.25227324552765E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E89" s="1">
+        <v>-3.9233803185383297E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E90" s="1">
+        <v>-6.5253246865113898E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E91" s="1">
+        <v>-9.0333611204570702E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E92" s="1">
+        <v>-0.114239232716925</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E93" s="1">
+        <v>-0.13674837081704899</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E94" s="1">
+        <v>-0.157655190023787</v>
+      </c>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E95" s="1">
+        <v>-0.17677157287461301</v>
+      </c>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E96" s="1">
+        <v>-0.19392874787523801</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E97" s="1">
+        <v>-0.20897871865412401</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E98" s="1">
+        <v>-0.221795482462951</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E99" s="1">
+        <v>-0.23227602822871801</v>
+      </c>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E100" s="1">
+        <v>-0.24034110650833301</v>
       </c>
     </row>
   </sheetData>

--- a/Тесты.xlsx
+++ b/Тесты.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="26300" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="26300" windowHeight="14900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,9 +28,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>1.0E-4</t>
+  </si>
+  <si>
+    <t>4.3368086899420177E-19</t>
+  </si>
+  <si>
+    <t>1.3877787807814457E-17</t>
+  </si>
+  <si>
+    <t>-6.938893903907228E-18</t>
+  </si>
+  <si>
+    <t>5.773159728050814E-15</t>
+  </si>
+  <si>
+    <t>1.407627451044391E-6</t>
   </si>
 </sst>
 </file>
@@ -1527,6 +1543,1169 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$1:$F$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.034</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.445</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.579</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.704</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.843</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.934</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.982</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.982</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.934</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.843</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.704</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.579</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.445</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.3011</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.034</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.008</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-261194160"/>
+        <c:axId val="-263056816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-261194160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="64.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-263056816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-263056816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-261194160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.287236001749781"/>
+          <c:y val="0.037037037037037"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$G$1:$G$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>4.4108277886988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.15792528231838</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.48896577242369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6279182525188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.82324020751262</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.23593737468775</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.885949537158127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.679937766173612</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.494653864889252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.260231063345845</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.06558690972687</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-238824736"/>
+        <c:axId val="-238826512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-238824736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-238826512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-238826512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-238824736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>I(x)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$B$1:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>I(r)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$A$1:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.6010374238661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.94784606080084</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.26671524770332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01516738043476</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.727397418455504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.537886981869853</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.310769466947391</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00903243338369446</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-238445568"/>
+        <c:axId val="-238102208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-238445568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-238102208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-238102208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-238445568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1647,6 +2826,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3195,20 +4494,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3282,6 +6129,101 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3553,15 +6495,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -3577,8 +6519,14 @@
       <c r="E1" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
+        <v>4.4108277886987999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3594,8 +6542,14 @@
       <c r="E2" s="1">
         <v>0.99750156206604002</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4.1579252823183799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3611,8 +6565,14 @@
       <c r="E3" s="1">
         <v>0.99002497223957597</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.4889657724236902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.995</v>
       </c>
@@ -3628,8 +6588,14 @@
       <c r="E4" s="1">
         <v>0.977626246538296</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.6279182525187998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.98199999999999998</v>
       </c>
@@ -3645,8 +6611,14 @@
       <c r="E5" s="1">
         <v>0.96039822665956298</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.8232402075126199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.93400000000000005</v>
       </c>
@@ -3662,8 +6634,14 @@
       <c r="E6" s="1">
         <v>0.93846980724081197</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.23593737468775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.84299999999999997</v>
       </c>
@@ -3679,8 +6657,14 @@
       <c r="E7" s="1">
         <v>0.91200486349720999</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.88594953715812697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.70399999999999996</v>
       </c>
@@ -3696,8 +6680,14 @@
       <c r="E8" s="1">
         <v>0.88120088860740498</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.67993776617361201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.57899999999999996</v>
       </c>
@@ -3713,8 +6703,14 @@
       <c r="E9" s="1">
         <v>0.84628735275047995</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.494653864889252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.44500000000000001</v>
       </c>
@@ -3730,8 +6726,14 @@
       <c r="E10" s="1">
         <v>0.80752379812254405</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.260231063345845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.30109999999999998</v>
       </c>
@@ -3747,8 +6749,14 @@
       <c r="E11" s="1">
         <v>0.76519768655796605</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.223</v>
       </c>
@@ -3764,8 +6772,14 @@
       <c r="E12" s="1">
         <v>0.71962201852751095</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.156</v>
       </c>
@@ -3781,8 +6795,14 @@
       <c r="E13" s="1">
         <v>0.67113274426436198</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.09</v>
       </c>
@@ -3798,8 +6818,14 @@
       <c r="E14" s="1">
         <v>0.62008598956150895</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3.4000000000000002E-2</v>
       </c>
@@ -3815,8 +6841,14 @@
       <c r="E15" s="1">
         <v>0.56685512037428798</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -3832,8 +6864,14 @@
       <c r="E16" s="1">
         <v>0.51182767173591803</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1E-4</v>
       </c>
@@ -3849,8 +6887,14 @@
       <c r="E17" s="1">
         <v>0.45540216763938002</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -3866,8 +6910,14 @@
       <c r="E18" s="1">
         <v>0.39798485944610901</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>0</v>
       </c>
@@ -3880,8 +6930,15 @@
       <c r="E19" s="1">
         <v>0.339986411042558</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G19" s="1">
+        <f>SUM(G1:G18)</f>
+        <v>20.065586909726875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>0</v>
       </c>
@@ -3894,8 +6951,12 @@
       <c r="E20" s="1">
         <v>0.28181855937438499</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="1">
+        <v>0.156</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>0</v>
       </c>
@@ -3908,8 +6969,12 @@
       <c r="E21" s="1">
         <v>0.22389077914123501</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="1">
+        <v>0.223</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>0</v>
       </c>
@@ -3922,8 +6987,11 @@
       <c r="E22" s="1">
         <v>0.16660698033199001</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="1">
+        <v>0.30109999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>0</v>
       </c>
@@ -3936,8 +7004,11 @@
       <c r="E23" s="1">
         <v>0.11036226692217301</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="1">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>0</v>
       </c>
@@ -3950,8 +7021,11 @@
       <c r="E24" s="1">
         <v>5.5539784445602002E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="1">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>0</v>
       </c>
@@ -3964,8 +7038,11 @@
       <c r="E25" s="1">
         <v>2.50768329724382E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="1">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>0</v>
       </c>
@@ -3978,8 +7055,11 @@
       <c r="E26" s="1">
         <v>-4.8383776468197998E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="1">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>0</v>
       </c>
@@ -3992,8 +7072,11 @@
       <c r="E27" s="1">
         <v>-9.6804954397038095E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="1">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>0</v>
       </c>
@@ -4006,8 +7089,11 @@
       <c r="E28" s="1">
         <v>-0.14244937004601099</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="1">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>0</v>
       </c>
@@ -4020,8 +7106,11 @@
       <c r="E29" s="1">
         <v>-0.18503603336438701</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="1">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>0</v>
       </c>
@@ -4034,8 +7123,11 @@
       <c r="E30" s="1">
         <v>-0.22431154579196799</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>0</v>
       </c>
@@ -4048,8 +7140,11 @@
       <c r="E31" s="1">
         <v>-0.260051954901933</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>0</v>
       </c>
@@ -4062,165 +7157,264 @@
       <c r="E32" s="1">
         <v>-0.292064347650697</v>
       </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E33" s="1">
         <v>-0.32018816965712299</v>
       </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E34" s="1">
         <v>-0.344296260398884</v>
       </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E35" s="1">
         <v>-0.36429559676200002</v>
       </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E36" s="1">
         <v>-0.38012773998726301</v>
       </c>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="1">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E37" s="1">
         <v>-0.39176898370079799</v>
       </c>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="1">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E38" s="1">
         <v>-0.39923020337119097</v>
       </c>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="1">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E39" s="1">
         <v>-0.40255641017856397</v>
       </c>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="1">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E40" s="1">
         <v>-0.40182601488764003</v>
       </c>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="1">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E41" s="1">
         <v>-0.39714980986384701</v>
       </c>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="1">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E42" s="1">
         <v>-0.38866967983585299</v>
       </c>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="1">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E43" s="1">
         <v>-0.37655705436756698</v>
       </c>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="1">
+        <v>0.30109999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E44" s="1">
         <v>-0.36101111723653401</v>
       </c>
-    </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="1">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E45" s="1">
         <v>-0.34225679000388598</v>
       </c>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="1">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E46" s="1">
         <v>-0.32054250898512099</v>
       </c>
-    </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="1">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E47" s="1">
         <v>-0.29613781657414101</v>
       </c>
-    </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E48" s="1">
         <v>-0.26933078941975203</v>
       </c>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E49" s="1">
         <v>-0.24042532729118399</v>
       </c>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E50" s="1">
         <v>-0.20973832758532501</v>
       </c>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E51" s="1">
         <v>-0.17759677131433699</v>
       </c>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E52" s="1">
         <v>-0.14433474706050001</v>
       </c>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E53" s="1">
         <v>-0.110290439790986</v>
       </c>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E54" s="1">
         <v>-7.5803111585583005E-2</v>
       </c>
-    </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E55" s="1">
         <v>-4.1210101244992102E-2</v>
       </c>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E56" s="1">
         <v>-6.8438694178181098E-3</v>
       </c>
-    </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E57" s="1">
         <v>2.69708846851138E-2</v>
       </c>
-    </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E58" s="1">
         <v>5.9920009724036799E-2</v>
       </c>
-    </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E59" s="1">
         <v>9.1702567574816304E-2</v>
       </c>
-    </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E60" s="1">
         <v>0.122033354592822</v>
       </c>
-    </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E61" s="1">
         <v>0.150645257250998</v>
       </c>
-    </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E62" s="1">
         <v>0.17729142224274599</v>
       </c>
-    </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E63" s="1">
         <v>0.20174722294890199</v>
       </c>
-    </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E64" s="1">
         <v>0.22381200613218699</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.2">
@@ -4408,4 +7602,186 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>2.6010374238660998</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <f>A1/$A$19</f>
+        <v>0.30906404913965052</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1.9478460608008401</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C11" si="0">A2/$A$19</f>
+        <v>0.23144964587130706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1.2667152477033199</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0.15051538281222265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1.0151673804347601</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.12062561586880528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0.72739741845550399</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>8.6431817327500354E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0.53788698186985295</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>6.3913547367998425E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0.31076946694739099</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3.692667737973921E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>9.0324333836944593E-3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.073264232776558E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C9" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C10" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f>SUM(A1:A18)</f>
+        <v>8.4158524134614616</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Тесты.xlsx
+++ b/Тесты.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tuzhilkin_Michael/git/oksana_task/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Сергей\eclipse-workspace\oksana_task.git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="26300" windowHeight="14900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1020" yWindow="465" windowWidth="26295" windowHeight="14895" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Тесты БПФ" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -51,8 +52,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,9 +92,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -100,12 +108,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -213,37 +224,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.982</c:v>
+                  <c:v>0.98199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.934</c:v>
+                  <c:v>0.93400000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.843</c:v>
+                  <c:v>0.84299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.704</c:v>
+                  <c:v>0.70399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.579</c:v>
+                  <c:v>0.57899999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.445</c:v>
+                  <c:v>0.44500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3011</c:v>
+                  <c:v>0.30109999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.223</c:v>
@@ -255,21 +266,26 @@
                   <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.034</c:v>
+                  <c:v>3.4000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.008</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0001</c:v>
+                  <c:v>1E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E864-4950-8C71-733B45BA9780}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -347,7 +363,7 @@
         <c:axId val="-265877584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.0"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -365,6 +381,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -451,7 +468,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -567,100 +584,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>-16.0</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-15.0</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-14.0</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-13.0</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-12.0</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-11.0</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-10.0</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.0</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.0</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7.0</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6.0</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5.0</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4.0</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.0</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.0</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -672,105 +689,110 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0.496199999999999</c:v>
+                  <c:v>0.49619999999999898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.512856155291711</c:v>
+                  <c:v>0.51285615529171102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.501067764605739</c:v>
+                  <c:v>0.50106776460573899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.477821586475967</c:v>
+                  <c:v>0.47782158647596701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.501204076400856</c:v>
+                  <c:v>0.50120407640085596</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.529233080812753</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.486391494231303</c:v>
+                  <c:v>0.48639149423130301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45623637557561</c:v>
+                  <c:v>0.45623637557560998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.539</c:v>
+                  <c:v>0.53900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.512016466135475</c:v>
+                  <c:v>0.51201646613547502</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.511513418985973</c:v>
+                  <c:v>0.51151341898597302</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.564382762673449</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.380995923599143</c:v>
+                  <c:v>0.38099592359914303</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0918817649974773</c:v>
+                  <c:v>9.18817649974773E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.185427322176982</c:v>
+                  <c:v>0.18542732217698199</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.85477180803755</c:v>
+                  <c:v>4.8547718080375502</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>9.2942</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.85477180803755</c:v>
+                  <c:v>4.8547718080375502</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.185427322176983</c:v>
+                  <c:v>0.18542732217698299</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0918817649974773</c:v>
+                  <c:v>9.18817649974773E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.380995923599143</c:v>
+                  <c:v>0.38099592359914303</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.564382762673449</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.511513418985974</c:v>
+                  <c:v>0.51151341898597402</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.512016466135475</c:v>
+                  <c:v>0.51201646613547502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.539</c:v>
+                  <c:v>0.53900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.45623637557561</c:v>
+                  <c:v>0.45623637557560998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.486391494231303</c:v>
+                  <c:v>0.48639149423130301</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.529233080812753</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.501204076400856</c:v>
+                  <c:v>0.50120407640085596</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.477821586475966</c:v>
+                  <c:v>0.47782158647596601</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.501067764605739</c:v>
+                  <c:v>0.50106776460573899</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.512856155291711</c:v>
+                  <c:v>0.51285615529171102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD4E-41D7-A647-3FC335557F19}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -787,8 +809,8 @@
         <c:axId val="-260483520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="16.0"/>
-          <c:min val="-16.0"/>
+          <c:max val="16"/>
+          <c:min val="-16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -806,6 +828,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -867,6 +890,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -953,7 +977,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1061,94 +1085,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99750156206604</c:v>
+                  <c:v>0.99750156206604002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.990024972239576</c:v>
+                  <c:v>0.99002497223957597</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.977626246538296</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.960398226659563</c:v>
+                  <c:v>0.96039822665956298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.938469807240812</c:v>
+                  <c:v>0.93846980724081197</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91200486349721</c:v>
+                  <c:v>0.91200486349720999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.881200888607405</c:v>
+                  <c:v>0.88120088860740498</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84628735275048</c:v>
+                  <c:v>0.84628735275047995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.807523798122544</c:v>
+                  <c:v>0.80752379812254405</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.765197686557966</c:v>
+                  <c:v>0.76519768655796605</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.719622018527511</c:v>
+                  <c:v>0.71962201852751095</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.671132744264362</c:v>
+                  <c:v>0.67113274426436198</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.620085989561509</c:v>
+                  <c:v>0.62008598956150895</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.566855120374288</c:v>
+                  <c:v>0.56685512037428798</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.511827671735918</c:v>
+                  <c:v>0.51182767173591803</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.45540216763938</c:v>
+                  <c:v>0.45540216763938002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.397984859446109</c:v>
+                  <c:v>0.39798485944610901</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.339986411042558</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.281818559374385</c:v>
+                  <c:v>0.28181855937438499</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.223890779141235</c:v>
+                  <c:v>0.22389077914123501</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.16660698033199</c:v>
+                  <c:v>0.16660698033199001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.110362266922173</c:v>
+                  <c:v>0.11036226692217301</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.055539784445602</c:v>
+                  <c:v>5.5539784445602002E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.00250768329724382</c:v>
+                  <c:v>2.50768329724382E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.048383776468198</c:v>
+                  <c:v>-4.8383776468197998E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.0968049543970381</c:v>
+                  <c:v>-9.6804954397038095E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.142449370046011</c:v>
+                  <c:v>-0.14244937004601099</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.185036033364387</c:v>
+                  <c:v>-0.18503603336438701</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.224311545791968</c:v>
+                  <c:v>-0.22431154579196799</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-0.260051954901933</c:v>
@@ -1157,85 +1181,85 @@
                   <c:v>-0.292064347650697</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.320188169657123</c:v>
+                  <c:v>-0.32018816965712299</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-0.344296260398884</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.364295596762</c:v>
+                  <c:v>-0.36429559676200002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.380127739987263</c:v>
+                  <c:v>-0.38012773998726301</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.391768983700798</c:v>
+                  <c:v>-0.39176898370079799</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.399230203371191</c:v>
+                  <c:v>-0.39923020337119097</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.402556410178564</c:v>
+                  <c:v>-0.40255641017856397</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.40182601488764</c:v>
+                  <c:v>-0.40182601488764003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.397149809863847</c:v>
+                  <c:v>-0.39714980986384701</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.388669679835853</c:v>
+                  <c:v>-0.38866967983585299</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.376557054367567</c:v>
+                  <c:v>-0.37655705436756698</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.361011117236534</c:v>
+                  <c:v>-0.36101111723653401</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.342256790003886</c:v>
+                  <c:v>-0.34225679000388598</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.320542508985121</c:v>
+                  <c:v>-0.32054250898512099</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.296137816574141</c:v>
+                  <c:v>-0.29613781657414101</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.269330789419752</c:v>
+                  <c:v>-0.26933078941975203</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.240425327291184</c:v>
+                  <c:v>-0.24042532729118399</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.209738327585325</c:v>
+                  <c:v>-0.20973832758532501</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.177596771314337</c:v>
+                  <c:v>-0.17759677131433699</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.1443347470605</c:v>
+                  <c:v>-0.14433474706050001</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-0.110290439790986</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.075803111585583</c:v>
+                  <c:v>-7.5803111585583005E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.0412101012449921</c:v>
+                  <c:v>-4.1210101244992102E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.00684386941781811</c:v>
+                  <c:v>-6.8438694178181098E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.0269708846851138</c:v>
+                  <c:v>2.69708846851138E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.0599200097240368</c:v>
+                  <c:v>5.9920009724036799E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0917025675748163</c:v>
+                  <c:v>9.1702567574816304E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>0.122033354592822</c:v>
@@ -1244,49 +1268,49 @@
                   <c:v>0.150645257250998</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.177291422242746</c:v>
+                  <c:v>0.17729142224274599</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.201747222948902</c:v>
+                  <c:v>0.20174722294890199</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.223812006132187</c:v>
+                  <c:v>0.22381200613218699</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0.243310604823405</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.260094605581604</c:v>
+                  <c:v>0.26009460558160402</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.274043360624144</c:v>
+                  <c:v>0.27404336062414397</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>0.285064737710577</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.293095603104277</c:v>
+                  <c:v>0.29309560310427701</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>0.298102035404817</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.300079270519553</c:v>
+                  <c:v>0.30007927051955302</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>0.299051380501551</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.295070691400954</c:v>
+                  <c:v>0.29507069140095399</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.288216947635008</c:v>
+                  <c:v>0.28821694763500799</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.278596232657464</c:v>
+                  <c:v>0.27859623265746403</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.266339657880357</c:v>
+                  <c:v>0.26633965788035702</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>0.251601833849951</c:v>
@@ -1295,75 +1319,80 @@
                   <c:v>0.234559139586413</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.215407807746187</c:v>
+                  <c:v>0.21540780774618701</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.194361844841157</c:v>
+                  <c:v>0.19436184484115701</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.171650807137368</c:v>
+                  <c:v>0.17165080713736799</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.147517454044047</c:v>
+                  <c:v>0.14751745404404701</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0.1222153017836</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.0960061008941477</c:v>
+                  <c:v>9.6006100894147697E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.0691572616556066</c:v>
+                  <c:v>6.9157261655606594E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.0419392518407111</c:v>
+                  <c:v>4.1939251840711102E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.014622991275232</c:v>
+                  <c:v>1.4622991275232E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.0125227324552765</c:v>
+                  <c:v>-1.25227324552765E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.0392338031853833</c:v>
+                  <c:v>-3.9233803185383297E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.0652532468651139</c:v>
+                  <c:v>-6.5253246865113898E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.0903336112045707</c:v>
+                  <c:v>-9.0333611204570702E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>-0.114239232716925</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.136748370817049</c:v>
+                  <c:v>-0.13674837081704899</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>-0.157655190023787</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.176771572874613</c:v>
+                  <c:v>-0.17677157287461301</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.193928747875238</c:v>
+                  <c:v>-0.19392874787523801</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-0.208978718654124</c:v>
+                  <c:v>-0.20897871865412401</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>-0.221795482462951</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.232276028228718</c:v>
+                  <c:v>-0.23227602822871801</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-0.240341106508333</c:v>
+                  <c:v>-0.24034110650833301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F92-4E4F-BDE7-B9C25B572607}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1458,6 +1487,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1544,7 +1574,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1626,58 +1656,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.008</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.034</c:v>
+                  <c:v>3.4000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.09</c:v>
@@ -1689,70 +1719,70 @@
                   <c:v>0.223</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3011</c:v>
+                  <c:v>0.30109999999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.445</c:v>
+                  <c:v>0.44500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.579</c:v>
+                  <c:v>0.57899999999999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.704</c:v>
+                  <c:v>0.70399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.843</c:v>
+                  <c:v>0.84299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.934</c:v>
+                  <c:v>0.93400000000000005</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.982</c:v>
+                  <c:v>0.98199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.995</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.982</c:v>
+                  <c:v>0.98199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.934</c:v>
+                  <c:v>0.93400000000000005</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.843</c:v>
+                  <c:v>0.84299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.704</c:v>
+                  <c:v>0.70399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.579</c:v>
+                  <c:v>0.57899999999999996</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.445</c:v>
+                  <c:v>0.44500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3011</c:v>
+                  <c:v>0.30109999999999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.223</c:v>
@@ -1764,63 +1794,68 @@
                   <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.034</c:v>
+                  <c:v>3.4000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.008</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B211-48FA-8A23-0E341FC2B11C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1837,7 +1872,7 @@
         <c:axId val="-261194160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="64.0"/>
+          <c:max val="64"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2003,7 +2038,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2021,8 +2056,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.287236001749781"/>
-          <c:y val="0.037037037037037"/>
+          <c:x val="0.28723600174978098"/>
+          <c:y val="3.7037037037037E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2092,28 +2127,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>4.4108277886988</c:v>
+                  <c:v>4.4108277886987999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.15792528231838</c:v>
+                  <c:v>4.1579252823183799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.48896577242369</c:v>
+                  <c:v>3.4889657724236902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6279182525188</c:v>
+                  <c:v>2.6279182525187998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.82324020751262</c:v>
+                  <c:v>1.8232402075126199</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.23593737468775</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.885949537158127</c:v>
+                  <c:v>0.88594953715812697</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.679937766173612</c:v>
+                  <c:v>0.67993776617361201</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.494653864889252</c:v>
@@ -2122,36 +2157,41 @@
                   <c:v>0.260231063345845</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20.06558690972687</c:v>
+                  <c:v>20.065586909726875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF27-4E2D-97B4-F0CF9F97D673}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2168,7 +2208,7 @@
         <c:axId val="-238824736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20.0"/>
+          <c:max val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2247,6 +2287,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2333,7 +2374,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2387,7 +2428,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.9</c:v>
@@ -2417,12 +2458,17 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E28-4AEA-B6A7-66EC615F46EB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2459,42 +2505,47 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.6010374238661</c:v>
+                  <c:v>2.6010374238660998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.94784606080084</c:v>
+                  <c:v>1.9478460608008401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.26671524770332</c:v>
+                  <c:v>1.2667152477033199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.01516738043476</c:v>
+                  <c:v>1.0151673804347601</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.727397418455504</c:v>
+                  <c:v>0.72739741845550399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.537886981869853</c:v>
+                  <c:v>0.53788698186985295</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.310769466947391</c:v>
+                  <c:v>0.31076946694739099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00903243338369446</c:v>
+                  <c:v>9.0324333836944593E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E28-4AEA-B6A7-66EC615F46EB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2589,6 +2640,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2669,6 +2721,872 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Тесты БПФ'!$C$1:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9876883405951378</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9510565162951536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8910065241883678</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8090169943749475</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7071067811865475</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5877852522924731</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4539904997395467</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3090169943749475</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.156434465040231</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84356553495976894</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.69098300562505266</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54600950026045325</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41221474770752697</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29289321881345254</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.19098300562505266</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10899347581163221</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.8943483704846469E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2311659404862341E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70A5-4CA5-8E03-4A38C5B22454}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Тесты БПФ'!$D$1:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.10633649839966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.10015518324586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.08171481417518</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0513241921051999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0094915954080901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95691532633735998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.894470735638068</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.823193978680134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74426282002095301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65897486050622101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56872361071406696</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.47497287574699298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.379229948262373</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28301812857923803</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.18784910228335</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5195706761965801E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.46560853727328E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>-2.7755575615628901E-17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-70A5-4CA5-8E03-4A38C5B22454}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Тесты БПФ'!$E$1:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.93457208198924</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.90995826006004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.83744949513439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7209509221341099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.56666832416625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3826783128268201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1783732715916999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96382326378596195</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74910316205782501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54363549322587401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35559775085203499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19143736939730699</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5528646953065398E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>-1.38777878078144E-17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>-1.38777878078144E-17</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00E+00">
+                  <c:v>1.38777878078144E-17</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>1.38777878078144E-17</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>-2.7755575615628901E-17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-70A5-4CA5-8E03-4A38C5B22454}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Тесты БПФ'!$F$1:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2.7612239011116602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6955050237692002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.50579575491752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2133352626863698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8500279774455699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.45380830291687</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0632544579740899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71232091418270505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42602084721703698</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.217710795753359</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8342736645034198E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7706178637840601E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7345919267878498E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.45690449554149E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6794129424834097E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.5472020224926694E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8921487582895301E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6498768282618999E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>-1.38777878078144E-17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-70A5-4CA5-8E03-4A38C5B22454}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Тесты БПФ'!$G$1:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3.5430693526181698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4089104057172399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.03176457308497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4813361923789801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8545972080850801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2526197915402399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75768392334606804</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41671326174491502</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23506703659440401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.181597656852307</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.202640236006492</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24020895913902299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24882025014681899</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20622968436792899</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11560328584337801</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>5.4210108624275198E-20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>1.38777878078144E-17</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>-1.38777878078144E-17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-70A5-4CA5-8E03-4A38C5B22454}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Тесты БПФ'!$H$1:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>7.7143626294540599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4722954491428402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7491967107213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5090213534040899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76802724231057196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96063108119443896</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0267224654081699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65915727731944695</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30099762312453898</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27667121990169602</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37668890582766301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.29110857272163199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.49158206908523E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9988498855259397E-2</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>6.8683424505605703E-2</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>3.46944695195361E-18</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00E+00">
+                  <c:v>4.4408920985006202E-16</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>-2.9487523534044102E-13</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>4.8751019221526797E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-70A5-4CA5-8E03-4A38C5B22454}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="391350032"/>
+        <c:axId val="391351016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="391350032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391351016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="391351016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391350032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2946,6 +3864,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5527,6 +6485,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6232,6 +7706,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -6501,9 +8010,9 @@
       <selection activeCell="G1" sqref="G1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1">
         <v>1</v>
       </c>
@@ -6526,7 +8035,7 @@
         <v>4.4108277886987999</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6549,7 +8058,7 @@
         <v>4.1579252823183799</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6572,7 +8081,7 @@
         <v>3.4889657724236902</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.995</v>
       </c>
@@ -6595,7 +8104,7 @@
         <v>2.6279182525187998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.98199999999999998</v>
       </c>
@@ -6618,7 +8127,7 @@
         <v>1.8232402075126199</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0.93400000000000005</v>
       </c>
@@ -6641,7 +8150,7 @@
         <v>1.23593737468775</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0.84299999999999997</v>
       </c>
@@ -6664,7 +8173,7 @@
         <v>0.88594953715812697</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>0.70399999999999996</v>
       </c>
@@ -6687,7 +8196,7 @@
         <v>0.67993776617361201</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>0.57899999999999996</v>
       </c>
@@ -6710,7 +8219,7 @@
         <v>0.494653864889252</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>0.44500000000000001</v>
       </c>
@@ -6733,7 +8242,7 @@
         <v>0.260231063345845</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>0.30109999999999998</v>
       </c>
@@ -6756,7 +8265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>0.223</v>
       </c>
@@ -6779,7 +8288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>0.156</v>
       </c>
@@ -6802,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>0.09</v>
       </c>
@@ -6825,7 +8334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>3.4000000000000002E-2</v>
       </c>
@@ -6848,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -6871,7 +8380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>1E-4</v>
       </c>
@@ -6894,7 +8403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>0</v>
       </c>
@@ -6917,7 +8426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="B19" s="1">
         <v>0</v>
       </c>
@@ -6938,7 +8447,7 @@
         <v>20.065586909726875</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="B20" s="1">
         <v>0</v>
       </c>
@@ -6956,7 +8465,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="B21" s="1">
         <v>0</v>
       </c>
@@ -6974,7 +8483,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="B22" s="1">
         <v>0</v>
       </c>
@@ -6991,7 +8500,7 @@
         <v>0.30109999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="B23" s="1">
         <v>0</v>
       </c>
@@ -7008,7 +8517,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="B24" s="1">
         <v>0</v>
       </c>
@@ -7025,7 +8534,7 @@
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="B25" s="1">
         <v>0</v>
       </c>
@@ -7042,7 +8551,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="B26" s="1">
         <v>0</v>
       </c>
@@ -7059,7 +8568,7 @@
         <v>0.84299999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="B27" s="1">
         <v>0</v>
       </c>
@@ -7076,7 +8585,7 @@
         <v>0.93400000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="B28" s="1">
         <v>0</v>
       </c>
@@ -7093,7 +8602,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="B29" s="1">
         <v>0</v>
       </c>
@@ -7110,7 +8619,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="B30" s="1">
         <v>0</v>
       </c>
@@ -7127,7 +8636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="B31" s="1">
         <v>0</v>
       </c>
@@ -7144,7 +8653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="B32" s="1">
         <v>0</v>
       </c>
@@ -7161,7 +8670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:6">
       <c r="E33" s="1">
         <v>-0.32018816965712299</v>
       </c>
@@ -7169,7 +8678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:6">
       <c r="E34" s="1">
         <v>-0.344296260398884</v>
       </c>
@@ -7177,7 +8686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:6">
       <c r="E35" s="1">
         <v>-0.36429559676200002</v>
       </c>
@@ -7185,7 +8694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:6">
       <c r="E36" s="1">
         <v>-0.38012773998726301</v>
       </c>
@@ -7193,7 +8702,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:6">
       <c r="E37" s="1">
         <v>-0.39176898370079799</v>
       </c>
@@ -7201,7 +8710,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:6">
       <c r="E38" s="1">
         <v>-0.39923020337119097</v>
       </c>
@@ -7209,7 +8718,7 @@
         <v>0.93400000000000005</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:6">
       <c r="E39" s="1">
         <v>-0.40255641017856397</v>
       </c>
@@ -7217,7 +8726,7 @@
         <v>0.84299999999999997</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:6">
       <c r="E40" s="1">
         <v>-0.40182601488764003</v>
       </c>
@@ -7225,7 +8734,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:6">
       <c r="E41" s="1">
         <v>-0.39714980986384701</v>
       </c>
@@ -7233,7 +8742,7 @@
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:6">
       <c r="E42" s="1">
         <v>-0.38866967983585299</v>
       </c>
@@ -7241,7 +8750,7 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:6">
       <c r="E43" s="1">
         <v>-0.37655705436756698</v>
       </c>
@@ -7249,7 +8758,7 @@
         <v>0.30109999999999998</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:6">
       <c r="E44" s="1">
         <v>-0.36101111723653401</v>
       </c>
@@ -7257,7 +8766,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="5:6">
       <c r="E45" s="1">
         <v>-0.34225679000388598</v>
       </c>
@@ -7265,7 +8774,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:6">
       <c r="E46" s="1">
         <v>-0.32054250898512099</v>
       </c>
@@ -7273,7 +8782,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="5:6">
       <c r="E47" s="1">
         <v>-0.29613781657414101</v>
       </c>
@@ -7281,7 +8790,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="5:6">
       <c r="E48" s="1">
         <v>-0.26933078941975203</v>
       </c>
@@ -7289,7 +8798,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:6">
       <c r="E49" s="1">
         <v>-0.24042532729118399</v>
       </c>
@@ -7297,7 +8806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:6">
       <c r="E50" s="1">
         <v>-0.20973832758532501</v>
       </c>
@@ -7305,7 +8814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:6">
       <c r="E51" s="1">
         <v>-0.17759677131433699</v>
       </c>
@@ -7313,7 +8822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:6">
       <c r="E52" s="1">
         <v>-0.14433474706050001</v>
       </c>
@@ -7321,7 +8830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="5:6">
       <c r="E53" s="1">
         <v>-0.110290439790986</v>
       </c>
@@ -7329,7 +8838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="5:6">
       <c r="E54" s="1">
         <v>-7.5803111585583005E-2</v>
       </c>
@@ -7337,7 +8846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="5:6">
       <c r="E55" s="1">
         <v>-4.1210101244992102E-2</v>
       </c>
@@ -7345,7 +8854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="5:6">
       <c r="E56" s="1">
         <v>-6.8438694178181098E-3</v>
       </c>
@@ -7353,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="5:6">
       <c r="E57" s="1">
         <v>2.69708846851138E-2</v>
       </c>
@@ -7361,7 +8870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="5:6">
       <c r="E58" s="1">
         <v>5.9920009724036799E-2</v>
       </c>
@@ -7369,7 +8878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="5:6">
       <c r="E59" s="1">
         <v>9.1702567574816304E-2</v>
       </c>
@@ -7377,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="5:6">
       <c r="E60" s="1">
         <v>0.122033354592822</v>
       </c>
@@ -7385,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="5:6">
       <c r="E61" s="1">
         <v>0.150645257250998</v>
       </c>
@@ -7393,7 +8902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="5:6">
       <c r="E62" s="1">
         <v>0.17729142224274599</v>
       </c>
@@ -7401,7 +8910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="5:6">
       <c r="E63" s="1">
         <v>0.20174722294890199</v>
       </c>
@@ -7409,7 +8918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="5:6">
       <c r="E64" s="1">
         <v>0.22381200613218699</v>
       </c>
@@ -7417,182 +8926,182 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="5:5">
       <c r="E65" s="1">
         <v>0.243310604823405</v>
       </c>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="5:5">
       <c r="E66" s="1">
         <v>0.26009460558160402</v>
       </c>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="5:5">
       <c r="E67" s="1">
         <v>0.27404336062414397</v>
       </c>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="5:5">
       <c r="E68" s="1">
         <v>0.285064737710577</v>
       </c>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="5:5">
       <c r="E69" s="1">
         <v>0.29309560310427701</v>
       </c>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="5:5">
       <c r="E70" s="1">
         <v>0.298102035404817</v>
       </c>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="5:5">
       <c r="E71" s="1">
         <v>0.30007927051955302</v>
       </c>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="5:5">
       <c r="E72" s="1">
         <v>0.299051380501551</v>
       </c>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="5:5">
       <c r="E73" s="1">
         <v>0.29507069140095399</v>
       </c>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="5:5">
       <c r="E74" s="1">
         <v>0.28821694763500799</v>
       </c>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="5:5">
       <c r="E75" s="1">
         <v>0.27859623265746403</v>
       </c>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="5:5">
       <c r="E76" s="1">
         <v>0.26633965788035702</v>
       </c>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="5:5">
       <c r="E77" s="1">
         <v>0.251601833849951</v>
       </c>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="5:5">
       <c r="E78" s="1">
         <v>0.234559139586413</v>
       </c>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="5:5">
       <c r="E79" s="1">
         <v>0.21540780774618701</v>
       </c>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="5:5">
       <c r="E80" s="1">
         <v>0.19436184484115701</v>
       </c>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="5:5">
       <c r="E81" s="1">
         <v>0.17165080713736799</v>
       </c>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="5:5">
       <c r="E82" s="1">
         <v>0.14751745404404701</v>
       </c>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="5:5">
       <c r="E83" s="1">
         <v>0.1222153017836</v>
       </c>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="5:5">
       <c r="E84" s="1">
         <v>9.6006100894147697E-2</v>
       </c>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="5:5">
       <c r="E85" s="1">
         <v>6.9157261655606594E-2</v>
       </c>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="5:5">
       <c r="E86" s="1">
         <v>4.1939251840711102E-2</v>
       </c>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="5:5">
       <c r="E87" s="1">
         <v>1.4622991275232E-2</v>
       </c>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="5:5">
       <c r="E88" s="1">
         <v>-1.25227324552765E-2</v>
       </c>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="5:5">
       <c r="E89" s="1">
         <v>-3.9233803185383297E-2</v>
       </c>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="5:5">
       <c r="E90" s="1">
         <v>-6.5253246865113898E-2</v>
       </c>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="5:5">
       <c r="E91" s="1">
         <v>-9.0333611204570702E-2</v>
       </c>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="5:5">
       <c r="E92" s="1">
         <v>-0.114239232716925</v>
       </c>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="5:5">
       <c r="E93" s="1">
         <v>-0.13674837081704899</v>
       </c>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="5:5">
       <c r="E94" s="1">
         <v>-0.157655190023787</v>
       </c>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="5:5">
       <c r="E95" s="1">
         <v>-0.17677157287461301</v>
       </c>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="5:5">
       <c r="E96" s="1">
         <v>-0.19392874787523801</v>
       </c>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:5">
       <c r="E97" s="1">
         <v>-0.20897871865412401</v>
       </c>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="5:5">
       <c r="E98" s="1">
         <v>-0.221795482462951</v>
       </c>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="5:5">
       <c r="E99" s="1">
         <v>-0.23227602822871801</v>
       </c>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="5:5">
       <c r="E100" s="1">
         <v>-0.24034110650833301</v>
       </c>
@@ -7608,13 +9117,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1">
         <v>2.6010374238660998</v>
       </c>
@@ -7626,7 +9135,7 @@
         <v>0.30906404913965052</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1.9478460608008401</v>
       </c>
@@ -7638,7 +9147,7 @@
         <v>0.23144964587130706</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1.2667152477033199</v>
       </c>
@@ -7650,7 +9159,7 @@
         <v>0.15051538281222265</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>1.0151673804347601</v>
       </c>
@@ -7662,7 +9171,7 @@
         <v>0.12062561586880528</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>0.72739741845550399</v>
       </c>
@@ -7674,7 +9183,7 @@
         <v>8.6431817327500354E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>0.53788698186985295</v>
       </c>
@@ -7686,7 +9195,7 @@
         <v>6.3913547367998425E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>0.31076946694739099</v>
       </c>
@@ -7698,7 +9207,7 @@
         <v>3.692667737973921E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>9.0324333836944593E-3</v>
       </c>
@@ -7710,71 +9219,71 @@
         <v>1.073264232776558E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>0.2</v>
       </c>
-      <c r="C9" t="e">
+      <c r="C9">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.6490056058512118E-18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1">
         <v>0.1</v>
       </c>
-      <c r="C10" t="e">
+      <c r="C10">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.8598633203410644E-16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
-      <c r="C11" t="e">
+      <c r="C11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.67259046605052E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19">
         <f>SUM(A1:A18)</f>
         <v>8.4158524134614616</v>
@@ -7784,4 +9293,737 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <f>PI()*A1</f>
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <f>COS(B1)+1</f>
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>1.10633649839966</v>
+      </c>
+      <c r="E1">
+        <v>1.93457208198924</v>
+      </c>
+      <c r="F1">
+        <v>2.7612239011116602</v>
+      </c>
+      <c r="G1">
+        <v>3.5430693526181698</v>
+      </c>
+      <c r="H1">
+        <v>7.7143626294540599</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>0.05</v>
+      </c>
+      <c r="B2" s="2">
+        <f t="shared" ref="B2:B21" si="0">PI()*A2</f>
+        <v>0.15707963267948966</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:C21" si="1">COS(B2)+1</f>
+        <v>1.9876883405951378</v>
+      </c>
+      <c r="D2">
+        <v>1.10015518324586</v>
+      </c>
+      <c r="E2">
+        <v>1.90995826006004</v>
+      </c>
+      <c r="F2">
+        <v>2.6955050237692002</v>
+      </c>
+      <c r="G2">
+        <v>3.4089104057172399</v>
+      </c>
+      <c r="H2">
+        <v>6.4722954491428402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.31415926535897931</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9510565162951536</v>
+      </c>
+      <c r="D3">
+        <v>1.08171481417518</v>
+      </c>
+      <c r="E3">
+        <v>1.83744949513439</v>
+      </c>
+      <c r="F3">
+        <v>2.50579575491752</v>
+      </c>
+      <c r="G3">
+        <v>3.03176457308497</v>
+      </c>
+      <c r="H3">
+        <v>3.7491967107213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>0.15</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.47123889803846897</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8910065241883678</v>
+      </c>
+      <c r="D4">
+        <v>1.0513241921051999</v>
+      </c>
+      <c r="E4">
+        <v>1.7209509221341099</v>
+      </c>
+      <c r="F4">
+        <v>2.2133352626863698</v>
+      </c>
+      <c r="G4">
+        <v>2.4813361923789801</v>
+      </c>
+      <c r="H4">
+        <v>1.5090213534040899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>0.2</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.62831853071795862</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8090169943749475</v>
+      </c>
+      <c r="D5">
+        <v>1.0094915954080901</v>
+      </c>
+      <c r="E5">
+        <v>1.56666832416625</v>
+      </c>
+      <c r="F5">
+        <v>1.8500279774455699</v>
+      </c>
+      <c r="G5">
+        <v>1.8545972080850801</v>
+      </c>
+      <c r="H5">
+        <v>0.76802724231057196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>0.25</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7071067811865475</v>
+      </c>
+      <c r="D6">
+        <v>0.95691532633735998</v>
+      </c>
+      <c r="E6">
+        <v>1.3826783128268201</v>
+      </c>
+      <c r="F6">
+        <v>1.45380830291687</v>
+      </c>
+      <c r="G6">
+        <v>1.2526197915402399</v>
+      </c>
+      <c r="H6">
+        <v>0.96063108119443896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>0.3</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94247779607693793</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5877852522924731</v>
+      </c>
+      <c r="D7">
+        <v>0.894470735638068</v>
+      </c>
+      <c r="E7">
+        <v>1.1783732715916999</v>
+      </c>
+      <c r="F7">
+        <v>1.0632544579740899</v>
+      </c>
+      <c r="G7">
+        <v>0.75768392334606804</v>
+      </c>
+      <c r="H7">
+        <v>1.0267224654081699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>0.35</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0995574287564276</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4539904997395467</v>
+      </c>
+      <c r="D8">
+        <v>0.823193978680134</v>
+      </c>
+      <c r="E8">
+        <v>0.96382326378596195</v>
+      </c>
+      <c r="F8">
+        <v>0.71232091418270505</v>
+      </c>
+      <c r="G8">
+        <v>0.41671326174491502</v>
+      </c>
+      <c r="H8">
+        <v>0.65915727731944695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>0.4</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2566370614359172</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3090169943749475</v>
+      </c>
+      <c r="D9">
+        <v>0.74426282002095301</v>
+      </c>
+      <c r="E9">
+        <v>0.74910316205782501</v>
+      </c>
+      <c r="F9">
+        <v>0.42602084721703698</v>
+      </c>
+      <c r="G9">
+        <v>0.23506703659440401</v>
+      </c>
+      <c r="H9">
+        <v>0.30099762312453898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>0.45</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4137166941154069</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="1"/>
+        <v>1.156434465040231</v>
+      </c>
+      <c r="D10">
+        <v>0.65897486050622101</v>
+      </c>
+      <c r="E10">
+        <v>0.54363549322587401</v>
+      </c>
+      <c r="F10">
+        <v>0.217710795753359</v>
+      </c>
+      <c r="G10">
+        <v>0.181597656852307</v>
+      </c>
+      <c r="H10">
+        <v>0.27667121990169602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>0.5</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.56872361071406696</v>
+      </c>
+      <c r="E11">
+        <v>0.35559775085203499</v>
+      </c>
+      <c r="F11">
+        <v>8.8342736645034198E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.202640236006492</v>
+      </c>
+      <c r="H11">
+        <v>0.37668890582766301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7278759594743864</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.84356553495976894</v>
+      </c>
+      <c r="D12">
+        <v>0.47497287574699298</v>
+      </c>
+      <c r="E12">
+        <v>0.19143736939730699</v>
+      </c>
+      <c r="F12">
+        <v>2.7706178637840601E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.24020895913902299</v>
+      </c>
+      <c r="H12">
+        <v>0.29110857272163199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>0.6</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8849555921538759</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.69098300562505266</v>
+      </c>
+      <c r="D13">
+        <v>0.379229948262373</v>
+      </c>
+      <c r="E13">
+        <v>5.5528646953065398E-2</v>
+      </c>
+      <c r="F13">
+        <v>1.7345919267878498E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.24882025014681899</v>
+      </c>
+      <c r="H13">
+        <v>7.49158206908523E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>0.65</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0420352248333655</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.54600950026045325</v>
+      </c>
+      <c r="D14">
+        <v>0.28301812857923803</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>3.45690449554149E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.20622968436792899</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>0.7</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1991148575128552</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.41221474770752697</v>
+      </c>
+      <c r="D15">
+        <v>0.18784910228335</v>
+      </c>
+      <c r="E15" s="4">
+        <v>-1.38777878078144E-17</v>
+      </c>
+      <c r="F15">
+        <v>5.6794129424834097E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.11560328584337801</v>
+      </c>
+      <c r="H15">
+        <v>4.9988498855259397E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>0.75</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.29289321881345254</v>
+      </c>
+      <c r="D16">
+        <v>9.5195706761965801E-2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>6.5472020224926694E-2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>5.4210108624275198E-20</v>
+      </c>
+      <c r="H16" s="4">
+        <v>6.8683424505605703E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>0.8</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5132741228718345</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.19098300562505266</v>
+      </c>
+      <c r="D17">
+        <v>6.46560853727328E-3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>4.8921487582895301E-2</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>3.46944695195361E-18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>0.85</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6703537555513241</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10899347581163221</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-1.38777878078144E-17</v>
+      </c>
+      <c r="F18">
+        <v>3.6498768282618999E-3</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>0.9</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8274333882308138</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="1"/>
+        <v>4.8943483704846469E-2</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1.38777878078144E-17</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4.4408920985006202E-16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>0.95</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9845130209103035</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2311659404862341E-2</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.38777878078144E-17</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1.38777878078144E-17</v>
+      </c>
+      <c r="H20" s="4">
+        <v>-2.9487523534044102E-13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>-2.7755575615628901E-17</v>
+      </c>
+      <c r="E21" s="4">
+        <v>-2.7755575615628901E-17</v>
+      </c>
+      <c r="F21" s="4">
+        <v>-1.38777878078144E-17</v>
+      </c>
+      <c r="G21" s="4">
+        <v>-1.38777878078144E-17</v>
+      </c>
+      <c r="H21" s="4">
+        <v>4.8751019221526797E-8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="C53" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>